--- a/va_facility_data_2025-02-20/St. Louis VA Medical Center-Jefferson Barracks - Facility Data.xlsx"; filename*=UTF-8''St.%20Louis%20VA%20Medical%20Center-Jefferson%20Barracks%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/St. Louis VA Medical Center-Jefferson Barracks - Facility Data.xlsx"; filename*=UTF-8''St.%20Louis%20VA%20Medical%20Center-Jefferson%20Barracks%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R74fdb094623c4200b3f6d06719c654ea"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdabdc19b13334edb98ec00cac5a7484f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc3e508f920e646d495828aae52566449"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R957816e8d54946c197a14f9b0fdba78b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8a76a9bc48ea4f58abc02be54609ac34"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6bd7b8a6eb7e44f69665dd48985892d8"/>
   </x:sheets>
 </x:workbook>
 </file>
